--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/annotations.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/annotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BDD624-DAF6-D943-8AF6-C129D8897BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D77E19-E7E9-954E-9413-151D392F0864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="4260" windowWidth="25280" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="4660" windowWidth="25280" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annotations" sheetId="1" r:id="rId1"/>
@@ -139,8 +139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -619,10 +620,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -978,19 +980,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>0.77509690246038243</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>0.76511435018291996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>0.7725585820257781</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>0.76899021632301301</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>0.76904281260674656</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0.77097797718511896</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1399,9 @@
       <c r="I14">
         <v>0.77509690246038243</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1426,8 +1430,9 @@
       <c r="I15">
         <v>0.76511435018291996</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1456,8 +1461,9 @@
       <c r="I16">
         <v>0.7725585820257781</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1486,8 +1492,9 @@
       <c r="I17">
         <v>0.76899021632301301</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1523,9 @@
       <c r="I18">
         <v>0.76904281260674656</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1546,8 +1554,9 @@
       <c r="I19">
         <v>0.77097797718511896</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>24</v>
       </c>
       <c r="G20">
-        <v>1.1791010288749998E-6</v>
+        <v>1.2552935610047297E-6</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1576,8 +1585,9 @@
       <c r="I20">
         <v>0.77509690246038243</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>24</v>
       </c>
       <c r="G21">
-        <v>1.1789508628333334E-6</v>
+        <v>1.2544646111189246E-6</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1606,8 +1616,9 @@
       <c r="I21">
         <v>0.76511435018291996</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>24</v>
       </c>
       <c r="G22">
-        <v>1.1457494240500002E-6</v>
+        <v>1.2198469816678353E-6</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1636,8 +1647,9 @@
       <c r="I22">
         <v>0.7725585820257781</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="G23">
-        <v>1.1951753480333332E-6</v>
+        <v>1.2704181351003001E-6</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1666,8 +1678,9 @@
       <c r="I23">
         <v>0.76899021632301301</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1688,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="G24">
-        <v>1.1843590245666666E-6</v>
+        <v>1.2605543385973971E-6</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1696,8 +1709,9 @@
       <c r="I24">
         <v>0.76904281260674656</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <v>1.1512329418333333E-6</v>
+        <v>1.2251377563541079E-6</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1726,6 +1740,7 @@
       <c r="I25">
         <v>0.77097797718511896</v>
       </c>
+      <c r="L25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
